--- a/xlsx/康乃狄克州_intext.xlsx
+++ b/xlsx/康乃狄克州_intext.xlsx
@@ -26,10 +26,10 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
-  </si>
-  <si>
-    <t>政策_政策_美國_康乃狄克州</t>
+    <t>美国</t>
+  </si>
+  <si>
+    <t>政策_政策_美国_康乃狄克州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BA%B7%E4%B9%83%E7%8B%84%E5%85%8B%E5%B7%9E%E5%B7%9E%E6%97%97</t>
@@ -59,7 +59,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A9%8B%E6%B8%AF</t>
   </si>
   <si>
-    <t>橋港</t>
+    <t>桥港</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%90%84%E5%B7%9E%E9%9D%A2%E7%A7%AF%E5%88%97%E8%A1%A8</t>
@@ -101,13 +101,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%B9%E5%85%A7%E7%88%BE%C2%B7%E9%A6%AC%E6%B4%9B%E4%BC%8A</t>
   </si>
   <si>
-    <t>丹內爾·馬洛伊</t>
+    <t>丹内尔·马洛伊</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E4%B8%BB%E9%BB%A8_(%E7%BE%8E%E5%9C%8B)</t>
   </si>
   <si>
-    <t>民主黨 (美國)</t>
+    <t>民主党 (美国)</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/List_of_lieutenant_governors_of_Connecticut</t>
@@ -137,7 +137,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%90%86%E6%9F%A5%E5%BE%B7%C2%B7%E5%B8%83%E9%AD%AF%E9%96%80%E8%96%A9%E7%88%BE</t>
   </si>
   <si>
-    <t>理查德·布魯門薩爾</t>
+    <t>理查德·布鲁门萨尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E9%87%8C%E6%96%AF%C2%B7%E5%A2%A8%E8%8F%B2</t>
@@ -185,7 +185,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%90%84%E5%B7%9E%E7%B8%AE%E5%AF%AB%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>美國各州縮寫列表</t>
+    <t>美国各州缩写列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/ISO_3166-2:US</t>
@@ -197,25 +197,25 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%9D%B1%E5%8C%97%E9%83%A8</t>
   </si>
   <si>
-    <t>美國東北部</t>
+    <t>美国东北部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%B7%9E%E4%BB%BD</t>
   </si>
   <si>
-    <t>美國州份</t>
+    <t>美国州份</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E8%8B%B1%E6%A0%BC%E8%98%AD</t>
   </si>
   <si>
-    <t>新英格蘭</t>
+    <t>新英格兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%8D%A8%E7%AB%8B%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>美國獨立戰爭</t>
+    <t>美国独立战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%81%E4%B8%89%E6%AE%96%E6%B0%91%E5%9C%B0</t>
@@ -227,19 +227,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E6%B4%B2%E7%9F%A5%E6%9B%B4%E9%B3%A5</t>
   </si>
   <si>
-    <t>美洲知更鳥</t>
+    <t>美洲知更鸟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%B5%B7%E8%BB%8D</t>
   </si>
   <si>
-    <t>美國海軍</t>
+    <t>美国海军</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BA%B7%E6%B6%85%E7%8B%84%E6%A0%BC%E8%99%9F%E6%88%B0%E8%89%A6</t>
   </si>
   <si>
-    <t>康涅狄格號戰艦</t>
+    <t>康涅狄格号战舰</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/USS_Connecticut_(SSN-22)</t>
@@ -293,37 +293,37 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%A9%E5%A4%A7%E5%88%A9</t>
   </si>
   <si>
-    <t>義大利</t>
+    <t>义大利</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%84%9B%E7%88%BE%E8%98%AD</t>
   </si>
   <si>
-    <t>愛爾蘭</t>
+    <t>爱尔兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B</t>
   </si>
   <si>
-    <t>英國</t>
+    <t>英国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9C%8B</t>
   </si>
   <si>
-    <t>德國</t>
+    <t>德国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E8%98%AD</t>
   </si>
   <si>
-    <t>波蘭</t>
+    <t>波兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E9%A6%AC%E5%A4%A9%E4%B8%BB%E6%95%99</t>
   </si>
   <si>
-    <t>羅馬天主教</t>
+    <t>罗马天主教</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E6%95%99</t>
@@ -341,13 +341,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%85%AC%E6%9C%83</t>
   </si>
   <si>
-    <t>聖公會</t>
+    <t>圣公会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A1%9B%E7%90%86%E5%85%AC%E6%9C%83%E6%B4%BE</t>
   </si>
   <si>
-    <t>衛理公會派</t>
+    <t>卫理公会派</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BA%B7%E6%B6%85%E7%8B%84%E6%A0%BC%E5%B7%9E%E8%A1%8C%E6%94%BF%E5%8C%BA%E5%88%92</t>
@@ -389,7 +389,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%80%B6%E9%AD%AF%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>耶魯大學</t>
+    <t>耶鲁大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BB%B4%E6%80%9D%E5%A4%A7%E5%AD%A6</t>
@@ -401,19 +401,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A9%8B%E6%B8%AF%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>橋港大學</t>
+    <t>桥港大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%BF%83%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>聖心大學</t>
+    <t>圣心大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%BA%B7%E6%B6%85%E7%8B%84%E6%A0%BC%E5%B7%9E%E7%AB%8B%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>中康涅狄格州立大學</t>
+    <t>中康涅狄格州立大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E4%B8%80%E5%AD%A6%E9%99%A2</t>
@@ -425,13 +425,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BA%B7%E4%B9%83%E7%8B%84%E5%85%8B%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>康乃狄克大學</t>
+    <t>康乃狄克大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BA%B7%E6%B6%85%E7%8B%84%E6%A0%BC%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>康涅狄格學院</t>
+    <t>康涅狄格学院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B4%B9%E5%B0%94%E8%8F%B2%E5%B0%94%E5%BE%B7%E5%A4%A7%E5%AD%A6</t>
@@ -443,19 +443,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B0%8F%E8%81%AF%E7%9B%9F</t>
   </si>
   <si>
-    <t>小聯盟</t>
+    <t>小联盟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%98%8E%E5%B0%BC%E8%98%87%E9%81%94%E9%9B%99%E5%9F%8E</t>
   </si>
   <si>
-    <t>明尼蘇達雙城</t>
+    <t>明尼苏达双城</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%88%8A%E9%87%91%E5%B1%B1%E5%B7%A8%E4%BA%BA</t>
   </si>
   <si>
-    <t>舊金山巨人</t>
+    <t>旧金山巨人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8B%AC%E7%AB%8B%E8%81%94%E7%9B%9F</t>
@@ -485,25 +485,25 @@
     <t>https://zh.wikipedia.org/wiki/91%E8%99%9F%E5%B7%9E%E9%9A%9B%E5%85%AC%E8%B7%AF</t>
   </si>
   <si>
-    <t>91號州際公路</t>
+    <t>91号州际公路</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/95%E8%99%9F%E5%B7%9E%E9%9A%9B%E5%85%AC%E8%B7%AF</t>
   </si>
   <si>
-    <t>95號州際公路</t>
+    <t>95号州际公路</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E6%B0%91%E5%9C%8B%E5%A4%96%E4%BA%A4%E9%83%A8</t>
   </si>
   <si>
-    <t>中華民國外交部</t>
+    <t>中华民国外交部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E6%95%99%E8%82%B2%E7%A0%94%E7%A9%B6%E9%99%A2</t>
   </si>
   <si>
-    <t>國家教育研究院</t>
+    <t>国家教育研究院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E8%90%A8%E8%AF%B8%E5%A1%9E%E5%B7%9E</t>
@@ -539,7 +539,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%95%B7%E5%B3%B6%E6%B5%B7%E5%B3%BD</t>
   </si>
   <si>
-    <t>長島海峽</t>
+    <t>长岛海峡</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%95%BF%E5%B2%9B_(%E7%BA%BD%E7%BA%A6)</t>
@@ -563,7 +563,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%A1%8C%E6%94%BF%E5%8D%80%E5%8A%83</t>
   </si>
   <si>
-    <t>美國行政區劃</t>
+    <t>美国行政区划</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E6%8B%89%E5%B7%B4%E9%A9%AC%E5%B7%9E</t>
@@ -581,7 +581,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E5%88%A9%E6%A1%91%E9%82%A3%E5%B7%9E</t>
   </si>
   <si>
-    <t>亞利桑那州</t>
+    <t>亚利桑那州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E8%82%AF%E8%89%B2%E5%B7%9E</t>
@@ -599,7 +599,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%BE%85%E6%8B%89%E5%A4%9A%E5%B7%9E</t>
   </si>
   <si>
-    <t>科羅拉多州</t>
+    <t>科罗拉多州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%89%B9%E6%8B%89%E5%8D%8E%E5%B7%9E</t>
@@ -617,7 +617,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%96%AC%E6%B2%BB%E4%BA%9E%E5%B7%9E</t>
   </si>
   <si>
-    <t>喬治亞州</t>
+    <t>乔治亚州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%8F%E5%A8%81%E5%A4%B7%E5%B7%9E</t>
@@ -653,7 +653,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A0%AA%E8%96%A9%E6%96%AF%E5%B7%9E</t>
   </si>
   <si>
-    <t>堪薩斯州</t>
+    <t>堪萨斯州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%82%AF%E5%A1%94%E5%9F%BA%E5%B7%9E</t>
@@ -683,7 +683,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%BA%BB%E8%96%A9%E8%AB%B8%E5%A1%9E%E5%B7%9E</t>
   </si>
   <si>
-    <t>麻薩諸塞州</t>
+    <t>麻萨诸塞州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E6%AD%87%E6%A0%B9%E5%B7%9E</t>
@@ -695,7 +695,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%98%8E%E5%B0%BC%E8%98%87%E9%81%94%E5%B7%9E</t>
   </si>
   <si>
-    <t>明尼蘇達州</t>
+    <t>明尼苏达州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E8%A5%BF%E8%A5%BF%E6%AF%94%E5%B7%9E</t>
@@ -707,7 +707,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E8%98%87%E9%87%8C%E5%B7%9E</t>
   </si>
   <si>
-    <t>密蘇里州</t>
+    <t>密苏里州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%92%99%E5%A4%A7%E6%8B%BF%E5%B7%9E</t>
@@ -719,7 +719,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%A7%E5%B8%83%E6%8B%89%E6%96%AF%E5%8A%A0%E5%B7%9E</t>
   </si>
   <si>
-    <t>內布拉斯加州</t>
+    <t>内布拉斯加州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%86%85%E5%8D%8E%E8%BE%BE%E5%B7%9E</t>
@@ -767,7 +767,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E5%85%8B%E6%8B%89%E8%8D%B7%E9%A6%AC%E5%B7%9E</t>
   </si>
   <si>
-    <t>奧克拉荷馬州</t>
+    <t>奥克拉荷马州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E5%8B%92%E5%86%88%E5%B7%9E</t>
@@ -785,7 +785,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E5%BE%B7%E5%B3%B6%E5%B7%9E</t>
   </si>
   <si>
-    <t>羅德島州</t>
+    <t>罗德岛州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E5%8D%A1%E7%BD%97%E6%9D%A5%E7%BA%B3%E5%B7%9E</t>
@@ -839,7 +839,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%B6%AD%E5%90%89%E5%B0%BC%E4%BA%9E%E5%B7%9E</t>
   </si>
   <si>
-    <t>西維吉尼亞州</t>
+    <t>西维吉尼亚州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E6%96%AF%E5%BA%B7%E8%BE%9B%E5%B7%9E</t>
@@ -857,7 +857,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E9%82%A6%E5%9C%B0%E5%8D%80</t>
   </si>
   <si>
-    <t>聯邦地區</t>
+    <t>联邦地区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%8E%E7%9B%9B%E9%A1%BF%E5%93%A5%E4%BC%A6%E6%AF%94%E4%BA%9A%E7%89%B9%E5%8C%BA</t>
@@ -869,19 +869,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B3%B6%E5%B6%BC%E5%9C%B0%E5%8D%80</t>
   </si>
   <si>
-    <t>島嶼地區</t>
+    <t>岛屿地区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%B1%AC%E8%96%A9%E6%91%A9%E4%BA%9E</t>
   </si>
   <si>
-    <t>美屬薩摩亞</t>
+    <t>美属萨摩亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%97%9C%E5%B3%B6</t>
   </si>
   <si>
-    <t>關島</t>
+    <t>关岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E9%A9%AC%E9%87%8C%E4%BA%9A%E7%BA%B3%E7%BE%A4%E5%B2%9B</t>
@@ -899,7 +899,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%B1%AC%E7%B6%AD%E7%88%BE%E4%BA%AC%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>美屬維爾京群島</t>
+    <t>美属维尔京群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%9C%AC%E5%9C%9F%E5%A4%96%E5%B0%8F%E5%B2%9B%E5%B1%BF</t>
@@ -911,7 +911,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E5%85%8B%E5%B3%B6</t>
   </si>
   <si>
-    <t>威克島</t>
+    <t>威克岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E7%BF%B0%E6%96%AF%E9%A1%BF%E7%8E%AF%E7%A4%81</t>
@@ -923,7 +923,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E9%80%94%E5%B3%B6</t>
   </si>
   <si>
-    <t>中途島</t>
+    <t>中途岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%87%91%E6%9B%BC%E7%A4%81</t>
@@ -935,25 +935,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%95%E9%82%81%E6%8B%89%E7%92%B0%E7%A4%81</t>
   </si>
   <si>
-    <t>帕邁拉環礁</t>
+    <t>帕迈拉环礁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B3%88%E7%B6%AD%E6%96%AF%E5%B3%B6</t>
   </si>
   <si>
-    <t>賈維斯島</t>
+    <t>贾维斯岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B2%9D%E5%85%8B%E5%B3%B6</t>
   </si>
   <si>
-    <t>貝克島</t>
+    <t>贝克岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B1%AA%E8%98%AD%E5%B3%B6</t>
   </si>
   <si>
-    <t>豪蘭島</t>
+    <t>豪兰岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%B3%E7%93%A6%E8%90%A8%E5%B2%9B</t>
@@ -983,7 +983,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%99%9A%E6%8B%9F%E5%9B%BD%E9%99%85%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -1001,7 +1001,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E6%A8%99%E6%BA%96%E5%90%8D%E7%A8%B1%E8%AD%98%E5%88%A5%E7%A2%BC</t>
   </si>
   <si>
-    <t>國際標準名稱識別碼</t>
+    <t>国际标准名称识别码</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -1019,7 +1019,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%AD%B8%E6%96%87%E6%AA%94%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>大學文檔系統</t>
+    <t>大学文档系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9B%BD%E5%9B%BD%E5%AE%B6%E5%9B%BE%E4%B9%A6%E9%A6%86</t>
